--- a/制造业X：第X期财务表格.xlsx
+++ b/制造业X：第X期财务表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://openwisdom-my.sharepoint.com/personal/lfjingt_openwisdom_onmicrosoft_com/Documents/桌面/V创/税务局/测试/Tax_coming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FF22947958977559056A72C52FCFABE6619D81A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B792F51-C180-44D2-885D-1D2A29ADF858}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_FF22947958977559056A72C52FCFABE6619D81A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{514DB4D5-2E45-40B8-8083-AB5503341EC6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="904" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-5660" yWindow="2420" windowWidth="21150" windowHeight="12730" tabRatio="904" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="财务工作说明" sheetId="15" r:id="rId1"/>
@@ -1594,6 +1594,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1642,114 +1645,114 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,9 +1797,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2116,20 +2116,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="58" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="58" customWidth="1"/>
-    <col min="4" max="16384" width="10.125" style="58"/>
+    <col min="1" max="1" width="9.26953125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="34.90625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="10.08984375" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="59"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
@@ -2146,7 +2146,7 @@
       <c r="Q1" s="62"/>
       <c r="R1" s="62"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="63">
         <v>1</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="Q3" s="62"/>
       <c r="R3" s="62"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="63">
         <v>2</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="Q4" s="62"/>
       <c r="R4" s="62"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="63">
         <v>3</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="63">
         <v>4</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <v>5</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="63">
         <v>6</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -2348,7 +2348,7 @@
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -2368,7 +2368,7 @@
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -2388,7 +2388,7 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -2408,7 +2408,7 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -2428,7 +2428,7 @@
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -2448,7 +2448,7 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -2468,7 +2468,7 @@
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -2488,7 +2488,7 @@
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -2508,7 +2508,7 @@
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -2528,7 +2528,7 @@
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -2548,7 +2548,7 @@
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -2568,7 +2568,7 @@
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -2588,7 +2588,7 @@
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -2608,7 +2608,7 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -2628,7 +2628,7 @@
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -2648,7 +2648,7 @@
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="62"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -2668,7 +2668,7 @@
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="62"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -2688,7 +2688,7 @@
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="62"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
@@ -2708,7 +2708,7 @@
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
@@ -2728,7 +2728,7 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="62"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -2748,7 +2748,7 @@
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="62"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -2768,7 +2768,7 @@
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
@@ -2788,7 +2788,7 @@
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="62"/>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
@@ -2808,7 +2808,7 @@
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="62"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -2828,7 +2828,7 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="62"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
@@ -2848,7 +2848,7 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="62"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
@@ -2868,7 +2868,7 @@
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="62"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -2888,7 +2888,7 @@
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="62"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
@@ -2908,7 +2908,7 @@
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="62"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -2928,7 +2928,7 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="62"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -2948,7 +2948,7 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -2968,7 +2968,7 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -2988,7 +2988,7 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="62"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -3008,7 +3008,7 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="62"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
@@ -3028,7 +3028,7 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
@@ -3048,7 +3048,7 @@
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="62"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
@@ -3068,7 +3068,7 @@
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
@@ -3088,7 +3088,7 @@
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="62"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
@@ -3108,7 +3108,7 @@
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
@@ -3128,7 +3128,7 @@
       <c r="Q48" s="62"/>
       <c r="R48" s="62"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="62"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
@@ -3148,7 +3148,7 @@
       <c r="Q49" s="62"/>
       <c r="R49" s="62"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="62"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -3168,7 +3168,7 @@
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="62"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -3188,7 +3188,7 @@
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="62"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -3208,7 +3208,7 @@
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
@@ -3228,7 +3228,7 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="62"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="62"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -3248,7 +3248,7 @@
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="62"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -3268,7 +3268,7 @@
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="62"/>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
@@ -3288,7 +3288,7 @@
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="62"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -3308,7 +3308,7 @@
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="62"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -3328,7 +3328,7 @@
       <c r="Q58" s="62"/>
       <c r="R58" s="62"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="62"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
@@ -3348,7 +3348,7 @@
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="62"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -3368,7 +3368,7 @@
       <c r="Q60" s="62"/>
       <c r="R60" s="62"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="62"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -3388,7 +3388,7 @@
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="62"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
@@ -3408,7 +3408,7 @@
       <c r="Q62" s="62"/>
       <c r="R62" s="62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="62"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -3428,7 +3428,7 @@
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="62"/>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -3448,7 +3448,7 @@
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -3468,7 +3468,7 @@
       <c r="Q65" s="62"/>
       <c r="R65" s="62"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="62"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
@@ -3488,7 +3488,7 @@
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="62"/>
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
@@ -3508,7 +3508,7 @@
       <c r="Q67" s="62"/>
       <c r="R67" s="62"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -3528,7 +3528,7 @@
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="62"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -3548,7 +3548,7 @@
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="62"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -3568,7 +3568,7 @@
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="62"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -3588,7 +3588,7 @@
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="62"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -3608,7 +3608,7 @@
       <c r="Q72" s="62"/>
       <c r="R72" s="62"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="62"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -3628,7 +3628,7 @@
       <c r="Q73" s="62"/>
       <c r="R73" s="62"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="62"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -3648,7 +3648,7 @@
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="62"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -3668,7 +3668,7 @@
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="62"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
@@ -3688,7 +3688,7 @@
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="62"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -3708,7 +3708,7 @@
       <c r="Q77" s="62"/>
       <c r="R77" s="62"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="62"/>
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
@@ -3728,7 +3728,7 @@
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="62"/>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -3748,7 +3748,7 @@
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="62"/>
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
@@ -3768,7 +3768,7 @@
       <c r="Q80" s="62"/>
       <c r="R80" s="62"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="62"/>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
@@ -3788,7 +3788,7 @@
       <c r="Q81" s="62"/>
       <c r="R81" s="62"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="62"/>
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
@@ -3808,7 +3808,7 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="62"/>
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
@@ -3828,7 +3828,7 @@
       <c r="Q83" s="62"/>
       <c r="R83" s="62"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="62"/>
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
@@ -3848,7 +3848,7 @@
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="62"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
@@ -3868,7 +3868,7 @@
       <c r="Q85" s="62"/>
       <c r="R85" s="62"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="62"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -3888,7 +3888,7 @@
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="62"/>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
@@ -3908,7 +3908,7 @@
       <c r="Q87" s="62"/>
       <c r="R87" s="62"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="62"/>
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
@@ -3928,7 +3928,7 @@
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="62"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
@@ -3948,7 +3948,7 @@
       <c r="Q89" s="62"/>
       <c r="R89" s="62"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="62"/>
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
@@ -3968,7 +3968,7 @@
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="62"/>
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
@@ -3988,7 +3988,7 @@
       <c r="Q91" s="62"/>
       <c r="R91" s="62"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="62"/>
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
@@ -4008,7 +4008,7 @@
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="62"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -4028,7 +4028,7 @@
       <c r="Q93" s="62"/>
       <c r="R93" s="62"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="62"/>
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
@@ -4048,7 +4048,7 @@
       <c r="Q94" s="62"/>
       <c r="R94" s="62"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="62"/>
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
@@ -4068,7 +4068,7 @@
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="62"/>
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
@@ -4088,7 +4088,7 @@
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="62"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
@@ -4108,7 +4108,7 @@
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="62"/>
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
@@ -4128,7 +4128,7 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="62"/>
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
@@ -4148,7 +4148,7 @@
       <c r="Q99" s="62"/>
       <c r="R99" s="62"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="62"/>
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
@@ -4168,7 +4168,7 @@
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="62"/>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
@@ -4188,7 +4188,7 @@
       <c r="Q101" s="62"/>
       <c r="R101" s="62"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="62"/>
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
@@ -4208,7 +4208,7 @@
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="62"/>
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
@@ -4228,7 +4228,7 @@
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="62"/>
       <c r="B104" s="59"/>
       <c r="C104" s="59"/>
@@ -4248,7 +4248,7 @@
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="62"/>
       <c r="B105" s="59"/>
       <c r="C105" s="59"/>
@@ -4268,7 +4268,7 @@
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="62"/>
       <c r="B106" s="59"/>
       <c r="C106" s="59"/>
@@ -4288,7 +4288,7 @@
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="62"/>
       <c r="B107" s="59"/>
       <c r="C107" s="59"/>
@@ -4308,7 +4308,7 @@
       <c r="Q107" s="62"/>
       <c r="R107" s="62"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="62"/>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -4328,7 +4328,7 @@
       <c r="Q108" s="62"/>
       <c r="R108" s="62"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="62"/>
       <c r="B109" s="59"/>
       <c r="C109" s="59"/>
@@ -4348,7 +4348,7 @@
       <c r="Q109" s="62"/>
       <c r="R109" s="62"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="62"/>
       <c r="B110" s="59"/>
       <c r="C110" s="59"/>
@@ -4368,7 +4368,7 @@
       <c r="Q110" s="62"/>
       <c r="R110" s="62"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="62"/>
       <c r="B111" s="59"/>
       <c r="C111" s="59"/>
@@ -4388,7 +4388,7 @@
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="62"/>
       <c r="B112" s="59"/>
       <c r="C112" s="59"/>
@@ -4408,7 +4408,7 @@
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="62"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
@@ -4428,7 +4428,7 @@
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="62"/>
       <c r="B114" s="59"/>
       <c r="C114" s="59"/>
@@ -4448,7 +4448,7 @@
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="62"/>
       <c r="B115" s="59"/>
       <c r="C115" s="59"/>
@@ -4468,7 +4468,7 @@
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="62"/>
       <c r="B116" s="59"/>
       <c r="C116" s="59"/>
@@ -4488,7 +4488,7 @@
       <c r="Q116" s="62"/>
       <c r="R116" s="62"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="62"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
@@ -4508,7 +4508,7 @@
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="62"/>
       <c r="B118" s="59"/>
       <c r="C118" s="59"/>
@@ -4528,7 +4528,7 @@
       <c r="Q118" s="62"/>
       <c r="R118" s="62"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="62"/>
       <c r="B119" s="59"/>
       <c r="C119" s="59"/>
@@ -4548,7 +4548,7 @@
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="62"/>
       <c r="B120" s="59"/>
       <c r="C120" s="59"/>
@@ -4568,7 +4568,7 @@
       <c r="Q120" s="62"/>
       <c r="R120" s="62"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="62"/>
       <c r="B121" s="59"/>
       <c r="C121" s="59"/>
@@ -4588,7 +4588,7 @@
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="62"/>
       <c r="B122" s="59"/>
       <c r="C122" s="59"/>
@@ -4608,7 +4608,7 @@
       <c r="Q122" s="62"/>
       <c r="R122" s="62"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="62"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -4628,7 +4628,7 @@
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="62"/>
       <c r="B124" s="59"/>
       <c r="C124" s="59"/>
@@ -4648,7 +4648,7 @@
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="62"/>
       <c r="B125" s="59"/>
       <c r="C125" s="59"/>
@@ -4668,7 +4668,7 @@
       <c r="Q125" s="62"/>
       <c r="R125" s="62"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="62"/>
       <c r="B126" s="59"/>
       <c r="C126" s="59"/>
@@ -4688,7 +4688,7 @@
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="62"/>
       <c r="B127" s="59"/>
       <c r="C127" s="59"/>
@@ -4708,7 +4708,7 @@
       <c r="Q127" s="62"/>
       <c r="R127" s="62"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="62"/>
       <c r="B128" s="59"/>
       <c r="C128" s="59"/>
@@ -4728,7 +4728,7 @@
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="62"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59"/>
@@ -4748,7 +4748,7 @@
       <c r="Q129" s="62"/>
       <c r="R129" s="62"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="62"/>
       <c r="B130" s="59"/>
       <c r="C130" s="59"/>
@@ -4768,7 +4768,7 @@
       <c r="Q130" s="62"/>
       <c r="R130" s="62"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="62"/>
       <c r="B131" s="59"/>
       <c r="C131" s="59"/>
@@ -4788,7 +4788,7 @@
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="62"/>
       <c r="B132" s="59"/>
       <c r="C132" s="59"/>
@@ -4808,7 +4808,7 @@
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="62"/>
       <c r="B133" s="59"/>
       <c r="C133" s="59"/>
@@ -4828,7 +4828,7 @@
       <c r="Q133" s="62"/>
       <c r="R133" s="62"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="62"/>
       <c r="B134" s="59"/>
       <c r="C134" s="59"/>
@@ -4848,7 +4848,7 @@
       <c r="Q134" s="62"/>
       <c r="R134" s="62"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="62"/>
       <c r="B135" s="59"/>
       <c r="C135" s="59"/>
@@ -4868,7 +4868,7 @@
       <c r="Q135" s="62"/>
       <c r="R135" s="62"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="62"/>
       <c r="B136" s="59"/>
       <c r="C136" s="59"/>
@@ -4888,7 +4888,7 @@
       <c r="Q136" s="62"/>
       <c r="R136" s="62"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="62"/>
       <c r="B137" s="59"/>
       <c r="C137" s="59"/>
@@ -4908,7 +4908,7 @@
       <c r="Q137" s="62"/>
       <c r="R137" s="62"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="62"/>
       <c r="B138" s="59"/>
       <c r="C138" s="59"/>
@@ -4928,7 +4928,7 @@
       <c r="Q138" s="62"/>
       <c r="R138" s="62"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="62"/>
       <c r="B139" s="59"/>
       <c r="C139" s="59"/>
@@ -4948,7 +4948,7 @@
       <c r="Q139" s="62"/>
       <c r="R139" s="62"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="62"/>
       <c r="B140" s="59"/>
       <c r="C140" s="59"/>
@@ -4968,7 +4968,7 @@
       <c r="Q140" s="62"/>
       <c r="R140" s="62"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="62"/>
       <c r="B141" s="59"/>
       <c r="C141" s="59"/>
@@ -4988,7 +4988,7 @@
       <c r="Q141" s="62"/>
       <c r="R141" s="62"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="62"/>
       <c r="B142" s="59"/>
       <c r="C142" s="59"/>
@@ -5008,7 +5008,7 @@
       <c r="Q142" s="62"/>
       <c r="R142" s="62"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="62"/>
       <c r="B143" s="59"/>
       <c r="C143" s="59"/>
@@ -5028,7 +5028,7 @@
       <c r="Q143" s="62"/>
       <c r="R143" s="62"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="62"/>
       <c r="B144" s="59"/>
       <c r="C144" s="59"/>
@@ -5048,7 +5048,7 @@
       <c r="Q144" s="62"/>
       <c r="R144" s="62"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="62"/>
       <c r="B145" s="59"/>
       <c r="C145" s="59"/>
@@ -5068,7 +5068,7 @@
       <c r="Q145" s="62"/>
       <c r="R145" s="62"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="62"/>
       <c r="B146" s="59"/>
       <c r="C146" s="59"/>
@@ -5088,7 +5088,7 @@
       <c r="Q146" s="62"/>
       <c r="R146" s="62"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="62"/>
       <c r="B147" s="59"/>
       <c r="C147" s="59"/>
@@ -5108,7 +5108,7 @@
       <c r="Q147" s="62"/>
       <c r="R147" s="62"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="62"/>
       <c r="B148" s="59"/>
       <c r="C148" s="59"/>
@@ -5128,7 +5128,7 @@
       <c r="Q148" s="62"/>
       <c r="R148" s="62"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="62"/>
       <c r="B149" s="59"/>
       <c r="C149" s="59"/>
@@ -5148,7 +5148,7 @@
       <c r="Q149" s="62"/>
       <c r="R149" s="62"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="62"/>
       <c r="B150" s="59"/>
       <c r="C150" s="59"/>
@@ -5168,7 +5168,7 @@
       <c r="Q150" s="62"/>
       <c r="R150" s="62"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="62"/>
       <c r="B151" s="59"/>
       <c r="C151" s="59"/>
@@ -5188,7 +5188,7 @@
       <c r="Q151" s="62"/>
       <c r="R151" s="62"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="62"/>
       <c r="B152" s="59"/>
       <c r="C152" s="59"/>
@@ -5208,7 +5208,7 @@
       <c r="Q152" s="62"/>
       <c r="R152" s="62"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="62"/>
       <c r="B153" s="59"/>
       <c r="C153" s="59"/>
@@ -5228,7 +5228,7 @@
       <c r="Q153" s="62"/>
       <c r="R153" s="62"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="62"/>
       <c r="B154" s="59"/>
       <c r="C154" s="59"/>
@@ -5248,7 +5248,7 @@
       <c r="Q154" s="62"/>
       <c r="R154" s="62"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="62"/>
       <c r="B155" s="59"/>
       <c r="C155" s="59"/>
@@ -5268,7 +5268,7 @@
       <c r="Q155" s="62"/>
       <c r="R155" s="62"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="62"/>
       <c r="B156" s="59"/>
       <c r="C156" s="59"/>
@@ -5288,7 +5288,7 @@
       <c r="Q156" s="62"/>
       <c r="R156" s="62"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="62"/>
       <c r="B157" s="59"/>
       <c r="C157" s="59"/>
@@ -5308,7 +5308,7 @@
       <c r="Q157" s="62"/>
       <c r="R157" s="62"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="62"/>
       <c r="B158" s="59"/>
       <c r="C158" s="59"/>
@@ -5328,7 +5328,7 @@
       <c r="Q158" s="62"/>
       <c r="R158" s="62"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="62"/>
       <c r="B159" s="59"/>
       <c r="C159" s="59"/>
@@ -5361,62 +5361,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.375" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="10" max="10" width="54.625" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="42.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" customWidth="1"/>
+    <col min="10" max="10" width="54.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="73"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="46"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="74"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="75"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
@@ -5424,8 +5424,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="137" t="s">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>164</v>
       </c>
       <c r="B7" s="56">
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>20</v>
       </c>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="E8" s="57"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>23</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>26</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>27</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>28</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>29</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>30</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
@@ -5561,7 +5561,7 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5572,32 +5572,32 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="6" width="21.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>35</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>42</v>
       </c>
@@ -5633,7 +5633,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="52"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="30"/>
       <c r="C4" s="50"/>
@@ -5642,7 +5642,7 @@
       <c r="F4" s="50"/>
       <c r="G4" s="53"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="30"/>
       <c r="C5" s="50"/>
@@ -5651,7 +5651,7 @@
       <c r="F5" s="50"/>
       <c r="G5" s="53"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="30"/>
       <c r="C6" s="50"/>
@@ -5660,7 +5660,7 @@
       <c r="F6" s="50"/>
       <c r="G6" s="53"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="30"/>
       <c r="C7" s="50"/>
@@ -5669,7 +5669,7 @@
       <c r="F7" s="50"/>
       <c r="G7" s="53"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="30"/>
       <c r="C8" s="50"/>
@@ -5678,7 +5678,7 @@
       <c r="F8" s="50"/>
       <c r="G8" s="53"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="30"/>
       <c r="C9" s="50"/>
@@ -5687,7 +5687,7 @@
       <c r="F9" s="50"/>
       <c r="G9" s="53"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="30"/>
       <c r="C10" s="50"/>
@@ -5696,7 +5696,7 @@
       <c r="F10" s="50"/>
       <c r="G10" s="53"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="30"/>
       <c r="C11" s="50"/>
@@ -5705,7 +5705,7 @@
       <c r="F11" s="50"/>
       <c r="G11" s="53"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="30"/>
       <c r="C12" s="50"/>
@@ -5714,7 +5714,7 @@
       <c r="F12" s="50"/>
       <c r="G12" s="53"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="30"/>
       <c r="C13" s="50"/>
@@ -5723,7 +5723,7 @@
       <c r="F13" s="50"/>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="30"/>
       <c r="C14" s="50"/>
@@ -5732,45 +5732,45 @@
       <c r="F14" s="50"/>
       <c r="G14" s="53"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="76" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
       <c r="G15" s="54"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-    </row>
-    <row r="18" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+    </row>
+    <row r="18" spans="1:7" ht="62.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5794,42 +5794,42 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.625" customWidth="1"/>
+    <col min="1" max="2" width="25.6328125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="12" width="10.375" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="12" width="10.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
@@ -5848,24 +5848,24 @@
       <c r="F2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82" t="s">
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -5941,7 +5941,7 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -5961,7 +5961,7 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -5981,7 +5981,7 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -6001,7 +6001,7 @@
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -6021,7 +6021,7 @@
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -6041,7 +6041,7 @@
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -6061,7 +6061,7 @@
       <c r="Q10" s="30"/>
       <c r="R10" s="30"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -6081,7 +6081,7 @@
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -6101,7 +6101,7 @@
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -6121,7 +6121,7 @@
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -6141,7 +6141,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -6161,7 +6161,7 @@
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -6181,7 +6181,7 @@
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -6201,7 +6201,7 @@
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -6221,7 +6221,7 @@
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -6241,15 +6241,15 @@
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A20" s="83" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -6263,29 +6263,29 @@
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6312,64 +6312,64 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.625"/>
-    <col min="9" max="9" width="9.625"/>
-    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125"/>
+    <col min="9" max="9" width="9.6328125"/>
+    <col min="20" max="20" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120" t="s">
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121" t="s">
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="33" t="s">
         <v>70</v>
@@ -6417,7 +6417,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2</v>
       </c>
@@ -6457,7 +6457,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>3</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>4</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>5</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>6</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>44</v>
       </c>
@@ -6566,63 +6566,63 @@
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A15" s="106" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="108" t="s">
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="99" t="s">
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99" t="s">
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99" t="s">
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>66</v>
       </c>
@@ -6653,23 +6653,23 @@
       <c r="J17" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="101" t="s">
+      <c r="K17" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="113"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="101" t="s">
+      <c r="L17" s="98"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="113"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="101" t="s">
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="R17" s="113"/>
-      <c r="S17" s="102"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R17" s="98"/>
+      <c r="S17" s="99"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>67</v>
       </c>
@@ -6691,20 +6691,20 @@
         <f>D18+G18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="104"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="104">
+      <c r="K18" s="100"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="100">
         <f>B18+E18-K18-N18</f>
         <v>0</v>
       </c>
-      <c r="R18" s="114"/>
-      <c r="S18" s="105"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R18" s="101"/>
+      <c r="S18" s="102"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>60</v>
       </c>
@@ -6717,17 +6717,17 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="95"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="105"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>61</v>
       </c>
@@ -6740,17 +6740,17 @@
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="98"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="108"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>68</v>
       </c>
@@ -6763,17 +6763,17 @@
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="89"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="K21" s="109"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="111"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>69</v>
       </c>
@@ -6786,79 +6786,79 @@
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="92"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A25" s="106" t="s">
+      <c r="K22" s="112"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="114"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99" t="s">
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="107" t="s">
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="108" t="s">
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="99" t="s">
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99" t="s">
+      <c r="O26" s="95"/>
+      <c r="P26" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="101" t="s">
+      <c r="Q26" s="116"/>
+      <c r="R26" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="S26" s="102"/>
+      <c r="S26" s="99"/>
       <c r="T26" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>66</v>
       </c>
@@ -6898,23 +6898,23 @@
       <c r="M27" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="N27" s="99" t="s">
+      <c r="N27" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99" t="s">
+      <c r="O27" s="95"/>
+      <c r="P27" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="101" t="s">
+      <c r="Q27" s="116"/>
+      <c r="R27" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="S27" s="102"/>
+      <c r="S27" s="99"/>
       <c r="T27" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>43</v>
       </c>
@@ -6930,15 +6930,15 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="105"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="102"/>
       <c r="T28" s="34"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>86</v>
       </c>
@@ -6954,15 +6954,15 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="95"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="105"/>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>87</v>
       </c>
@@ -6978,15 +6978,15 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="98"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="108"/>
       <c r="T30" s="38"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>88</v>
       </c>
@@ -7002,15 +7002,15 @@
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="89"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="111"/>
       <c r="T31" s="40"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>89</v>
       </c>
@@ -7026,101 +7026,89 @@
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="92"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="114"/>
       <c r="T32" s="42"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="86" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-    </row>
-    <row r="36" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+    </row>
+    <row r="36" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="A33:K36"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
     <mergeCell ref="A25:T25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
@@ -7129,25 +7117,37 @@
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="A33:K36"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7165,35 +7165,35 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.75" customWidth="1"/>
-    <col min="2" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
+    <col min="2" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-    </row>
-    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+    </row>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>92</v>
       </c>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>93</v>
       </c>
@@ -7225,7 +7225,7 @@
       <c r="F3" s="28"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>94</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="F4" s="28"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
@@ -7247,7 +7247,7 @@
       <c r="F5" s="28"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>96</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="F6" s="28"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>97</v>
       </c>
@@ -7269,7 +7269,7 @@
       <c r="F7" s="28"/>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>98</v>
       </c>
@@ -7284,28 +7284,28 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="97.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="123" t="s">
+    <row r="9" spans="1:12" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-    </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="124" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+    </row>
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-    </row>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+    </row>
+    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>92</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>102</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>103</v>
       </c>
@@ -7350,7 +7350,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>104</v>
       </c>
@@ -7370,7 +7370,7 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7385,26 +7385,26 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="22.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
@@ -7421,11 +7421,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="128" t="s">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="129" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -7434,33 +7434,33 @@
       <c r="D3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="134"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="135"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
+      <c r="E4" s="136"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="135"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="129"/>
-      <c r="B6" s="131" t="s">
+      <c r="E5" s="136"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="130"/>
+      <c r="B6" s="132" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -7469,65 +7469,65 @@
       <c r="D6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="135"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="129"/>
-      <c r="B7" s="132"/>
+      <c r="E6" s="136"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="130"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="135"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="129"/>
-      <c r="B8" s="132"/>
+      <c r="E7" s="136"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="130"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="135"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="129"/>
-      <c r="B9" s="132"/>
+      <c r="E8" s="136"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="130"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="135"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="129"/>
-      <c r="B10" s="132"/>
+      <c r="E9" s="136"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="130"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="135"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="129"/>
-      <c r="B11" s="133"/>
+      <c r="E10" s="136"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="130"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="135"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="129"/>
+      <c r="E11" s="136"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="130"/>
       <c r="B12" s="8" t="s">
         <v>121</v>
       </c>
@@ -7537,11 +7537,11 @@
       <c r="D12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="135"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="129"/>
-      <c r="B13" s="128" t="s">
+      <c r="E12" s="136"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="130"/>
+      <c r="B13" s="129" t="s">
         <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -7550,43 +7550,43 @@
       <c r="D13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="135"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
+      <c r="E13" s="136"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="135"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
+      <c r="E14" s="136"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="135"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
+      <c r="E15" s="136"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="135"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="129"/>
+      <c r="E16" s="136"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="130"/>
       <c r="B17" s="3" t="s">
         <v>130</v>
       </c>
@@ -7596,11 +7596,11 @@
       <c r="D17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="135"/>
-    </row>
-    <row r="18" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A18" s="129"/>
-      <c r="B18" s="128" t="s">
+      <c r="E17" s="136"/>
+    </row>
+    <row r="18" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="A18" s="130"/>
+      <c r="B18" s="129" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -7609,21 +7609,21 @@
       <c r="D18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="135"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130"/>
+      <c r="E18" s="136"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="130"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="135"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="129"/>
+      <c r="E19" s="136"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="130"/>
       <c r="B20" s="3" t="s">
         <v>136</v>
       </c>
@@ -7633,10 +7633,10 @@
       <c r="D20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="135"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="129"/>
+      <c r="E20" s="136"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="130"/>
       <c r="B21" s="5" t="s">
         <v>138</v>
       </c>
@@ -7646,10 +7646,10 @@
       <c r="D21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="135"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="129"/>
+      <c r="E21" s="136"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="130"/>
       <c r="B22" s="5" t="s">
         <v>140</v>
       </c>
@@ -7659,13 +7659,13 @@
       <c r="D22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="135"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="128" t="s">
+      <c r="E22" s="136"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="129" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -7674,54 +7674,54 @@
       <c r="D23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="134"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="129"/>
-      <c r="B24" s="129"/>
+      <c r="E23" s="135"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="135"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="129"/>
-      <c r="B25" s="129"/>
+      <c r="E24" s="136"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="135"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="129"/>
-      <c r="B26" s="129"/>
+      <c r="E25" s="136"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="135"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="129"/>
-      <c r="B27" s="129"/>
+      <c r="E26" s="136"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="135"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="128" t="s">
+      <c r="E27" s="136"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="129" t="s">
         <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -7733,10 +7733,10 @@
       <c r="D28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="134"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="129"/>
+      <c r="E28" s="135"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="130"/>
       <c r="B29" s="5" t="s">
         <v>152</v>
       </c>
@@ -7746,10 +7746,10 @@
       <c r="D29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="135"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="130"/>
+      <c r="E29" s="136"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="131"/>
       <c r="B30" s="5" t="s">
         <v>154</v>
       </c>
@@ -7759,9 +7759,9 @@
       <c r="D30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="136"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="137"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>156</v>
       </c>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>159</v>
       </c>
@@ -7791,34 +7791,34 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="125" t="s">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="126"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-    </row>
-    <row r="35" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="126"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="127"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+    </row>
+    <row r="35" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="127"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
@@ -7840,6 +7840,6 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>